--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.4603155217268</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H2">
-        <v>10.4603155217268</v>
+        <v>31.564906</v>
       </c>
       <c r="I2">
-        <v>0.5071579910490577</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J2">
-        <v>0.5071579910490577</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>15.2673007105096</v>
+        <v>0.04936133333333333</v>
       </c>
       <c r="N2">
-        <v>15.2673007105096</v>
+        <v>0.148084</v>
       </c>
       <c r="O2">
-        <v>0.8079660570778144</v>
+        <v>0.002475496704993591</v>
       </c>
       <c r="P2">
-        <v>0.8079660570778144</v>
+        <v>0.002635547730441438</v>
       </c>
       <c r="Q2">
-        <v>159.7007825970142</v>
+        <v>0.5193619489004445</v>
       </c>
       <c r="R2">
-        <v>159.7007825970142</v>
+        <v>4.674257540104</v>
       </c>
       <c r="S2">
-        <v>0.4097664423434126</v>
+        <v>0.001183816212417291</v>
       </c>
       <c r="T2">
-        <v>0.4097664423434126</v>
+        <v>0.001310801782589379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.4603155217268</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H3">
-        <v>10.4603155217268</v>
+        <v>31.564906</v>
       </c>
       <c r="I3">
-        <v>0.5071579910490577</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J3">
-        <v>0.5071579910490577</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.62866722869706</v>
+        <v>16.251742</v>
       </c>
       <c r="N3">
-        <v>3.62866722869706</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O3">
-        <v>0.1920339429221856</v>
+        <v>0.8150333683194528</v>
       </c>
       <c r="P3">
-        <v>0.1920339429221856</v>
+        <v>0.8677286218055926</v>
       </c>
       <c r="Q3">
-        <v>37.95700413552123</v>
+        <v>170.9949028554173</v>
       </c>
       <c r="R3">
-        <v>37.95700413552123</v>
+        <v>1538.954125698756</v>
       </c>
       <c r="S3">
-        <v>0.09739154870564504</v>
+        <v>0.3897600482082401</v>
       </c>
       <c r="T3">
-        <v>0.09739154870564504</v>
+        <v>0.4315688200706897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.66578613037009</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H4">
-        <v>7.66578613037009</v>
+        <v>31.564906</v>
       </c>
       <c r="I4">
-        <v>0.371668013800833</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J4">
-        <v>0.371668013800833</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>15.2673007105096</v>
+        <v>0.006136</v>
       </c>
       <c r="N4">
-        <v>15.2673007105096</v>
+        <v>0.018408</v>
       </c>
       <c r="O4">
-        <v>0.8079660570778144</v>
+        <v>0.0003077236119062291</v>
       </c>
       <c r="P4">
-        <v>0.8079660570778144</v>
+        <v>0.0003276192068148213</v>
       </c>
       <c r="Q4">
-        <v>117.0358620348139</v>
+        <v>0.06456075440533333</v>
       </c>
       <c r="R4">
-        <v>117.0358620348139</v>
+        <v>0.5810467896480001</v>
       </c>
       <c r="S4">
-        <v>0.3002951396526018</v>
+        <v>0.0001471576189066847</v>
       </c>
       <c r="T4">
-        <v>0.3002951396526018</v>
+        <v>0.000162942918977778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.66578613037009</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H5">
-        <v>7.66578613037009</v>
+        <v>31.564906</v>
       </c>
       <c r="I5">
-        <v>0.371668013800833</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J5">
-        <v>0.371668013800833</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.62866722869706</v>
+        <v>3.632732</v>
       </c>
       <c r="N5">
-        <v>3.62866722869706</v>
+        <v>7.265464</v>
       </c>
       <c r="O5">
-        <v>0.1920339429221856</v>
+        <v>0.1821834113636472</v>
       </c>
       <c r="P5">
-        <v>0.1920339429221856</v>
+        <v>0.1293082112571511</v>
       </c>
       <c r="Q5">
-        <v>27.81658691347439</v>
+        <v>38.22228136773067</v>
       </c>
       <c r="R5">
-        <v>27.81658691347439</v>
+        <v>229.333688206384</v>
       </c>
       <c r="S5">
-        <v>0.07137287414823125</v>
+        <v>0.08712258657857212</v>
       </c>
       <c r="T5">
-        <v>0.07137287414823125</v>
+        <v>0.0643120334576251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.49925712434595</v>
+        <v>8.509821666666667</v>
       </c>
       <c r="H6">
-        <v>2.49925712434595</v>
+        <v>25.529465</v>
       </c>
       <c r="I6">
-        <v>0.1211739951501094</v>
+        <v>0.3867756673737729</v>
       </c>
       <c r="J6">
-        <v>0.1211739951501094</v>
+        <v>0.4022567597096229</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.2673007105096</v>
+        <v>0.04936133333333333</v>
       </c>
       <c r="N6">
-        <v>15.2673007105096</v>
+        <v>0.148084</v>
       </c>
       <c r="O6">
-        <v>0.8079660570778144</v>
+        <v>0.002475496704993591</v>
       </c>
       <c r="P6">
-        <v>0.8079660570778144</v>
+        <v>0.002635547730441438</v>
       </c>
       <c r="Q6">
-        <v>38.15691007027311</v>
+        <v>0.4200561438955556</v>
       </c>
       <c r="R6">
-        <v>38.15691007027311</v>
+        <v>3.78050529506</v>
       </c>
       <c r="S6">
-        <v>0.09790447508180007</v>
+        <v>0.0009574618901554722</v>
       </c>
       <c r="T6">
-        <v>0.09790447508180007</v>
+        <v>0.001060166890107424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="H7">
+        <v>25.529465</v>
+      </c>
+      <c r="I7">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="J7">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16.251742</v>
+      </c>
+      <c r="N7">
+        <v>48.75522599999999</v>
+      </c>
+      <c r="O7">
+        <v>0.8150333683194528</v>
+      </c>
+      <c r="P7">
+        <v>0.8677286218055926</v>
+      </c>
+      <c r="Q7">
+        <v>138.2994261926766</v>
+      </c>
+      <c r="R7">
+        <v>1244.69483573409</v>
+      </c>
+      <c r="S7">
+        <v>0.3152350749636504</v>
+      </c>
+      <c r="T7">
+        <v>0.3490497037148145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="H8">
+        <v>25.529465</v>
+      </c>
+      <c r="I8">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="J8">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.006136</v>
+      </c>
+      <c r="N8">
+        <v>0.018408</v>
+      </c>
+      <c r="O8">
+        <v>0.0003077236119062291</v>
+      </c>
+      <c r="P8">
+        <v>0.0003276192068148213</v>
+      </c>
+      <c r="Q8">
+        <v>0.05221626574666667</v>
+      </c>
+      <c r="R8">
+        <v>0.4699463917200001</v>
+      </c>
+      <c r="S8">
+        <v>0.0001190200053616997</v>
+      </c>
+      <c r="T8">
+        <v>0.0001317870405519668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="H9">
+        <v>25.529465</v>
+      </c>
+      <c r="I9">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="J9">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.632732</v>
+      </c>
+      <c r="N9">
+        <v>7.265464</v>
+      </c>
+      <c r="O9">
+        <v>0.1821834113636472</v>
+      </c>
+      <c r="P9">
+        <v>0.1293082112571511</v>
+      </c>
+      <c r="Q9">
+        <v>30.91390148279334</v>
+      </c>
+      <c r="R9">
+        <v>185.48340889676</v>
+      </c>
+      <c r="S9">
+        <v>0.07046411051460526</v>
+      </c>
+      <c r="T9">
+        <v>0.052015102064149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.344699</v>
+      </c>
+      <c r="I10">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J10">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.04936133333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.148084</v>
+      </c>
+      <c r="O10">
+        <v>0.002475496704993591</v>
+      </c>
+      <c r="P10">
+        <v>0.002635547730441438</v>
+      </c>
+      <c r="Q10">
+        <v>0.005671600746222222</v>
+      </c>
+      <c r="R10">
+        <v>0.051044406716</v>
+      </c>
+      <c r="S10">
+        <v>1.292765657543944E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.431438014283256E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.344699</v>
+      </c>
+      <c r="I11">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J11">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.251742</v>
+      </c>
+      <c r="N11">
+        <v>48.75522599999999</v>
+      </c>
+      <c r="O11">
+        <v>0.8150333683194528</v>
+      </c>
+      <c r="P11">
+        <v>0.8677286218055926</v>
+      </c>
+      <c r="Q11">
+        <v>1.867319738552666</v>
+      </c>
+      <c r="R11">
+        <v>16.805877646974</v>
+      </c>
+      <c r="S11">
+        <v>0.004256306001903892</v>
+      </c>
+      <c r="T11">
+        <v>0.004712871335956035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.344699</v>
+      </c>
+      <c r="I12">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J12">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.006136</v>
+      </c>
+      <c r="N12">
+        <v>0.018408</v>
+      </c>
+      <c r="O12">
+        <v>0.0003077236119062291</v>
+      </c>
+      <c r="P12">
+        <v>0.0003276192068148213</v>
+      </c>
+      <c r="Q12">
+        <v>0.0007050243546666666</v>
+      </c>
+      <c r="R12">
+        <v>0.006345219192</v>
+      </c>
+      <c r="S12">
+        <v>1.607008874967513E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.779389465906254E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.344699</v>
+      </c>
+      <c r="I13">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J13">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.632732</v>
+      </c>
+      <c r="N13">
+        <v>7.265464</v>
+      </c>
+      <c r="O13">
+        <v>0.1821834113636472</v>
+      </c>
+      <c r="P13">
+        <v>0.1293082112571511</v>
+      </c>
+      <c r="Q13">
+        <v>0.4173996958893333</v>
+      </c>
+      <c r="R13">
+        <v>2.504398175336</v>
+      </c>
+      <c r="S13">
+        <v>0.0009514068716392575</v>
+      </c>
+      <c r="T13">
+        <v>0.0007023082413364359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.315325</v>
+      </c>
+      <c r="H14">
+        <v>0.945975</v>
+      </c>
+      <c r="I14">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J14">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.04936133333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.148084</v>
+      </c>
+      <c r="O14">
+        <v>0.002475496704993591</v>
+      </c>
+      <c r="P14">
+        <v>0.002635547730441438</v>
+      </c>
+      <c r="Q14">
+        <v>0.01556486243333333</v>
+      </c>
+      <c r="R14">
+        <v>0.1400837619</v>
+      </c>
+      <c r="S14">
+        <v>3.547802554968632E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.928368157614623E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.315325</v>
+      </c>
+      <c r="H15">
+        <v>0.945975</v>
+      </c>
+      <c r="I15">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J15">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.251742</v>
+      </c>
+      <c r="N15">
+        <v>48.75522599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.8150333683194528</v>
+      </c>
+      <c r="P15">
+        <v>0.8677286218055926</v>
+      </c>
+      <c r="Q15">
+        <v>5.124580546149999</v>
+      </c>
+      <c r="R15">
+        <v>46.12122491534999</v>
+      </c>
+      <c r="S15">
+        <v>0.0116807970726664</v>
+      </c>
+      <c r="T15">
+        <v>0.01293377254367147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.315325</v>
+      </c>
+      <c r="H16">
+        <v>0.945975</v>
+      </c>
+      <c r="I16">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J16">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.006136</v>
+      </c>
+      <c r="N16">
+        <v>0.018408</v>
+      </c>
+      <c r="O16">
+        <v>0.0003077236119062291</v>
+      </c>
+      <c r="P16">
+        <v>0.0003276192068148213</v>
+      </c>
+      <c r="Q16">
+        <v>0.0019348342</v>
+      </c>
+      <c r="R16">
+        <v>0.0174135078</v>
+      </c>
+      <c r="S16">
+        <v>4.41019620160602E-06</v>
+      </c>
+      <c r="T16">
+        <v>4.883269026050753E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.315325</v>
+      </c>
+      <c r="H17">
+        <v>0.945975</v>
+      </c>
+      <c r="I17">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J17">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.632732</v>
+      </c>
+      <c r="N17">
+        <v>7.265464</v>
+      </c>
+      <c r="O17">
+        <v>0.1821834113636472</v>
+      </c>
+      <c r="P17">
+        <v>0.1293082112571511</v>
+      </c>
+      <c r="Q17">
+        <v>1.1454912179</v>
+      </c>
+      <c r="R17">
+        <v>6.8729473074</v>
+      </c>
+      <c r="S17">
+        <v>0.002610994274421877</v>
+      </c>
+      <c r="T17">
+        <v>0.001927380232023403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.5402755</v>
+      </c>
+      <c r="H18">
+        <v>5.080551</v>
+      </c>
+      <c r="I18">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J18">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.04936133333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.148084</v>
+      </c>
+      <c r="O18">
+        <v>0.002475496704993591</v>
+      </c>
+      <c r="P18">
+        <v>0.002635547730441438</v>
+      </c>
+      <c r="Q18">
+        <v>0.125391385714</v>
+      </c>
+      <c r="R18">
+        <v>0.752348314284</v>
+      </c>
+      <c r="S18">
+        <v>0.0002858129202957019</v>
+      </c>
+      <c r="T18">
+        <v>0.0002109809960256574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.5402755</v>
+      </c>
+      <c r="H19">
+        <v>5.080551</v>
+      </c>
+      <c r="I19">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J19">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.251742</v>
+      </c>
+      <c r="N19">
+        <v>48.75522599999999</v>
+      </c>
+      <c r="O19">
+        <v>0.8150333683194528</v>
+      </c>
+      <c r="P19">
+        <v>0.8677286218055926</v>
+      </c>
+      <c r="Q19">
+        <v>41.28390203492099</v>
+      </c>
+      <c r="R19">
+        <v>247.703412209526</v>
+      </c>
+      <c r="S19">
+        <v>0.09410114207299188</v>
+      </c>
+      <c r="T19">
+        <v>0.06946345414046101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.49925712434595</v>
-      </c>
-      <c r="H7">
-        <v>2.49925712434595</v>
-      </c>
-      <c r="I7">
-        <v>0.1211739951501094</v>
-      </c>
-      <c r="J7">
-        <v>0.1211739951501094</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.62866722869706</v>
-      </c>
-      <c r="N7">
-        <v>3.62866722869706</v>
-      </c>
-      <c r="O7">
-        <v>0.1920339429221856</v>
-      </c>
-      <c r="P7">
-        <v>0.1920339429221856</v>
-      </c>
-      <c r="Q7">
-        <v>9.068972423201803</v>
-      </c>
-      <c r="R7">
-        <v>9.068972423201803</v>
-      </c>
-      <c r="S7">
-        <v>0.02326952006830929</v>
-      </c>
-      <c r="T7">
-        <v>0.02326952006830929</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.5402755</v>
+      </c>
+      <c r="H20">
+        <v>5.080551</v>
+      </c>
+      <c r="I20">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J20">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.006136</v>
+      </c>
+      <c r="N20">
+        <v>0.018408</v>
+      </c>
+      <c r="O20">
+        <v>0.0003077236119062291</v>
+      </c>
+      <c r="P20">
+        <v>0.0003276192068148213</v>
+      </c>
+      <c r="Q20">
+        <v>0.015587130468</v>
+      </c>
+      <c r="R20">
+        <v>0.093522782808</v>
+      </c>
+      <c r="S20">
+        <v>3.552878256127117E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.622658879311946E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.5402755</v>
+      </c>
+      <c r="H21">
+        <v>5.080551</v>
+      </c>
+      <c r="I21">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J21">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.632732</v>
+      </c>
+      <c r="N21">
+        <v>7.265464</v>
+      </c>
+      <c r="O21">
+        <v>0.1821834113636472</v>
+      </c>
+      <c r="P21">
+        <v>0.1293082112571511</v>
+      </c>
+      <c r="Q21">
+        <v>9.228140097666</v>
+      </c>
+      <c r="R21">
+        <v>36.912560390664</v>
+      </c>
+      <c r="S21">
+        <v>0.02103431312440869</v>
+      </c>
+      <c r="T21">
+        <v>0.01035138726201721</v>
       </c>
     </row>
   </sheetData>
